--- a/src/test/java/dataEngine/Shakedown 5.xlsx
+++ b/src/test/java/dataEngine/Shakedown 5.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="18195" windowHeight="10290"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="106">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -54,9 +54,6 @@
     <t>openBrowser</t>
   </si>
   <si>
-    <t>Mozilla</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
@@ -322,6 +319,21 @@
   </si>
   <si>
     <t>1000009</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>txtbx_ScheduledStart</t>
+  </si>
+  <si>
+    <t>dummydate</t>
+  </si>
+  <si>
+    <t>Chrome</t>
   </si>
 </sst>
 </file>
@@ -392,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -436,12 +448,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -737,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,10 +830,10 @@
     </row>
     <row r="2" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>53</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>54</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>9</v>
@@ -802,204 +845,234 @@
         <v>11</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>12</v>
+        <v>105</v>
+      </c>
+      <c r="I2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>14</v>
-      </c>
       <c r="H3" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="I3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="I4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>31</v>
+      <c r="I5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>17</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>18</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>10</v>
       </c>
+      <c r="I6" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="7" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="I7" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="I9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>63</v>
+      <c r="I10" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H11" s="18" t="s">
         <v>10</v>
       </c>
+      <c r="I11" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="12" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12" s="18" t="s">
         <v>10</v>
@@ -1007,139 +1080,139 @@
     </row>
     <row r="13" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="18" t="s">
-        <v>40</v>
+      <c r="H14" s="21" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>33</v>
+        <v>22</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="18">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H19" s="18">
         <v>3</v>
@@ -1147,39 +1220,39 @@
     </row>
     <row r="20" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H20" s="18">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H21" s="18">
         <v>0</v>
@@ -1187,388 +1260,403 @@
     </row>
     <row r="22" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="18" t="s">
-        <v>40</v>
+      <c r="H22" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>33</v>
+        <v>22</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>18</v>
+        <v>39</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>18</v>
+        <v>29</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>47</v>
+        <v>29</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>44</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>19</v>
+        <v>47</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>18</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>33</v>
+        <v>22</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>18</v>
+        <v>39</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>16</v>
+        <v>39</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H38" s="19" t="s">
-        <v>26</v>
+        <v>15</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H39" s="18" t="s">
-        <v>40</v>
+        <v>24</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D40" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" s="18">
+        <v>1</v>
+      </c>
+      <c r="G41" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="18">
+      <c r="H41" s="18">
         <v>1</v>
       </c>
-      <c r="G40" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H40" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="9"/>
-      <c r="F41" s="12"/>
-      <c r="H41" s="12"/>
     </row>
     <row r="42" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="9"/>
@@ -1578,12 +1666,12 @@
     <row r="43" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="9"/>
       <c r="F43" s="12"/>
-      <c r="G43" s="9"/>
       <c r="H43" s="12"/>
     </row>
     <row r="44" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="9"/>
       <c r="F44" s="12"/>
+      <c r="G44" s="9"/>
       <c r="H44" s="12"/>
     </row>
     <row r="45" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1609,12 +1697,12 @@
     <row r="49" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="9"/>
       <c r="F49" s="12"/>
-      <c r="G49" s="9"/>
       <c r="H49" s="12"/>
     </row>
     <row r="50" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="9"/>
       <c r="F50" s="12"/>
+      <c r="G50" s="9"/>
       <c r="H50" s="12"/>
     </row>
     <row r="51" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1640,12 +1728,12 @@
     <row r="55" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="9"/>
       <c r="F55" s="12"/>
-      <c r="G55" s="9"/>
       <c r="H55" s="12"/>
     </row>
     <row r="56" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="9"/>
       <c r="F56" s="12"/>
+      <c r="G56" s="9"/>
       <c r="H56" s="12"/>
     </row>
     <row r="57" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1656,34 +1744,34 @@
     <row r="58" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="9"/>
       <c r="F58" s="12"/>
-      <c r="H58" s="13"/>
+      <c r="H58" s="12"/>
     </row>
     <row r="59" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="9"/>
       <c r="F59" s="12"/>
-      <c r="H59" s="12"/>
+      <c r="H59" s="13"/>
     </row>
     <row r="60" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="9"/>
       <c r="F60" s="12"/>
-      <c r="G60" s="10"/>
       <c r="H60" s="12"/>
     </row>
     <row r="61" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="9"/>
       <c r="F61" s="12"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="11"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="12"/>
     </row>
     <row r="62" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="9"/>
       <c r="F62" s="12"/>
       <c r="G62" s="9"/>
-      <c r="H62" s="12"/>
+      <c r="H62" s="11"/>
     </row>
     <row r="63" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="9"/>
       <c r="F63" s="12"/>
+      <c r="G63" s="9"/>
       <c r="H63" s="12"/>
     </row>
     <row r="64" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1709,34 +1797,34 @@
     <row r="68" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="9"/>
       <c r="F68" s="12"/>
-      <c r="H68" s="13"/>
+      <c r="H68" s="12"/>
     </row>
     <row r="69" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="9"/>
       <c r="F69" s="12"/>
-      <c r="H69" s="12"/>
+      <c r="H69" s="13"/>
     </row>
     <row r="70" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="9"/>
       <c r="F70" s="12"/>
-      <c r="G70" s="10"/>
       <c r="H70" s="12"/>
     </row>
     <row r="71" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="9"/>
       <c r="F71" s="12"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="11"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="12"/>
     </row>
     <row r="72" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="9"/>
       <c r="F72" s="12"/>
       <c r="G72" s="9"/>
-      <c r="H72" s="12"/>
+      <c r="H72" s="11"/>
     </row>
     <row r="73" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="9"/>
       <c r="F73" s="12"/>
+      <c r="G73" s="9"/>
       <c r="H73" s="12"/>
     </row>
     <row r="74" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1762,23 +1850,23 @@
     <row r="78" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="9"/>
       <c r="F78" s="12"/>
-      <c r="H78" s="13"/>
+      <c r="H78" s="12"/>
     </row>
     <row r="79" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="9"/>
       <c r="F79" s="12"/>
-      <c r="H79" s="12"/>
+      <c r="H79" s="13"/>
     </row>
     <row r="80" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="9"/>
       <c r="F80" s="12"/>
-      <c r="G80" s="10"/>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="5"/>
-      <c r="F81" s="7"/>
-      <c r="H81" s="7"/>
+    <row r="81" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="9"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="12"/>
     </row>
     <row r="82" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="5"/>
@@ -1818,13 +1906,13 @@
     <row r="89" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="5"/>
       <c r="F89" s="7"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="6"/>
+      <c r="H89" s="7"/>
     </row>
     <row r="90" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="5"/>
       <c r="F90" s="7"/>
-      <c r="H90" s="7"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="6"/>
     </row>
     <row r="91" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="5"/>
@@ -1849,13 +1937,13 @@
     <row r="95" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="5"/>
       <c r="F95" s="7"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="6"/>
+      <c r="H95" s="7"/>
     </row>
     <row r="96" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B96" s="5"/>
       <c r="F96" s="7"/>
-      <c r="H96" s="7"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="6"/>
     </row>
     <row r="97" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="5"/>
@@ -1870,13 +1958,13 @@
     <row r="99" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B99" s="5"/>
       <c r="F99" s="7"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="6"/>
+      <c r="H99" s="7"/>
     </row>
     <row r="100" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B100" s="5"/>
       <c r="F100" s="7"/>
-      <c r="H100" s="7"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="6"/>
     </row>
     <row r="101" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B101" s="5"/>
@@ -1892,6 +1980,11 @@
       <c r="B103" s="5"/>
       <c r="F103" s="7"/>
       <c r="H103" s="7"/>
+    </row>
+    <row r="104" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="5"/>
+      <c r="F104" s="7"/>
+      <c r="H104" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
